--- a/Figure-Data/data-fig-5-abcd.xlsx
+++ b/Figure-Data/data-fig-5-abcd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ansag\My Drive\USC\Research\Khan Lab\Projects\Gas Pill\Manuscript\Submission\Cell Reports Physical Science\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99079788-F495-4657-9293-7A0AC4D93F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC732732-71B3-43A6-A331-51DCA470EB19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>Bz</t>
   </si>
@@ -64,12 +64,15 @@
   <si>
     <t>Decoded Location - NN</t>
   </si>
+  <si>
+    <t>Decoded Location - LUT</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,6 +117,19 @@
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -200,10 +216,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -253,9 +270,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{CAFBCDEE-8F6A-42D9-AC85-5E5E8020B390}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -533,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:J20"/>
+  <dimension ref="A3:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -546,7 +567,7 @@
     <col min="8" max="8" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:15">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="12" t="s">
@@ -561,8 +582,13 @@
       </c>
       <c r="I3" s="16"/>
       <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="M3" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
         <v>3</v>
@@ -587,8 +613,17 @@
       <c r="J4" s="10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="M4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -615,8 +650,17 @@
       <c r="J5" s="11">
         <v>-6.8088369999999996</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="M5" s="17">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N5" s="17">
+        <v>9.6</v>
+      </c>
+      <c r="O5" s="17">
+        <v>-5.85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -643,8 +687,17 @@
       <c r="J6" s="11">
         <v>-5.2931429999999997</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="M6" s="17">
+        <v>2.95</v>
+      </c>
+      <c r="N6" s="17">
+        <v>5.35</v>
+      </c>
+      <c r="O6" s="17">
+        <v>-6.15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -671,8 +724,17 @@
       <c r="J7" s="11">
         <v>-3.2051319999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="M7" s="17">
+        <v>2.35</v>
+      </c>
+      <c r="N7" s="17">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="O7" s="17">
+        <v>-3.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -699,8 +761,17 @@
       <c r="J8" s="11">
         <v>-0.18587780000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="M8" s="17">
+        <v>2.85</v>
+      </c>
+      <c r="N8" s="17">
+        <v>4.8</v>
+      </c>
+      <c r="O8" s="17">
+        <v>-0.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -727,8 +798,17 @@
       <c r="J9" s="11">
         <v>0.58136069999999995</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="M9" s="17">
+        <v>3.1</v>
+      </c>
+      <c r="N9" s="17">
+        <v>6.8</v>
+      </c>
+      <c r="O9" s="17">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -755,8 +835,17 @@
       <c r="J10" s="11">
         <v>5.0025725000000003</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="M10" s="17">
+        <v>2.65</v>
+      </c>
+      <c r="N10" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="O10" s="17">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="3">
         <v>7</v>
       </c>
@@ -783,8 +872,17 @@
       <c r="J11" s="11">
         <v>6.3150940000000002</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="M11" s="17">
+        <v>2.85</v>
+      </c>
+      <c r="N11" s="17">
+        <v>-3.6</v>
+      </c>
+      <c r="O11" s="17">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="3">
         <v>8</v>
       </c>
@@ -811,8 +909,17 @@
       <c r="J12" s="11">
         <v>3.6195396999999998</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="M12" s="17">
+        <v>2.9</v>
+      </c>
+      <c r="N12" s="17">
+        <v>-6.25</v>
+      </c>
+      <c r="O12" s="17">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="3">
         <v>9</v>
       </c>
@@ -839,8 +946,17 @@
       <c r="J13" s="11">
         <v>2.2844014000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="M13" s="17">
+        <v>2.95</v>
+      </c>
+      <c r="N13" s="17">
+        <v>-7.05</v>
+      </c>
+      <c r="O13" s="17">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="3">
         <v>10</v>
       </c>
@@ -867,8 +983,17 @@
       <c r="J14" s="11">
         <v>0.30324316000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="M14" s="17">
+        <v>3.25</v>
+      </c>
+      <c r="N14" s="17">
+        <v>-7.9</v>
+      </c>
+      <c r="O14" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="3">
         <v>11</v>
       </c>
@@ -895,8 +1020,17 @@
       <c r="J15" s="11">
         <v>-3.487628</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="M15" s="17">
+        <v>3.4</v>
+      </c>
+      <c r="N15" s="17">
+        <v>-8</v>
+      </c>
+      <c r="O15" s="17">
+        <v>-3.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="3">
         <v>12</v>
       </c>
@@ -923,8 +1057,17 @@
       <c r="J16" s="11">
         <v>-3.567564</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="M16" s="17">
+        <v>3.15</v>
+      </c>
+      <c r="N16" s="17">
+        <v>-3.35</v>
+      </c>
+      <c r="O16" s="17">
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="3">
         <v>13</v>
       </c>
@@ -951,8 +1094,17 @@
       <c r="J17" s="11">
         <v>-4.2071443000000004</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="M17" s="17">
+        <v>3.1</v>
+      </c>
+      <c r="N17" s="17">
+        <v>-6.4</v>
+      </c>
+      <c r="O17" s="17">
+        <v>-4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="3">
         <v>14</v>
       </c>
@@ -979,8 +1131,17 @@
       <c r="J18" s="11">
         <v>-7.4232883000000003</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="M18" s="17">
+        <v>3.4</v>
+      </c>
+      <c r="N18" s="17">
+        <v>-6.15</v>
+      </c>
+      <c r="O18" s="17">
+        <v>-7.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="3">
         <v>15</v>
       </c>
@@ -1007,8 +1168,17 @@
       <c r="J19" s="11">
         <v>-9.4790120000000009</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="M19" s="17">
+        <v>3.55</v>
+      </c>
+      <c r="N19" s="17">
+        <v>-9.6</v>
+      </c>
+      <c r="O19" s="17">
+        <v>-9.35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="3">
         <v>16</v>
       </c>
@@ -1035,11 +1205,21 @@
       <c r="J20" s="11">
         <v>-9.4808939999999993</v>
       </c>
+      <c r="M20" s="17">
+        <v>3.45</v>
+      </c>
+      <c r="N20" s="17">
+        <v>-8.65</v>
+      </c>
+      <c r="O20" s="17">
+        <v>-9.3000000000000007</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="H3:J3"/>
+    <mergeCell ref="M3:O3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
